--- a/biology/Botanique/Arisaema_dracontium/Arisaema_dracontium.xlsx
+++ b/biology/Botanique/Arisaema_dracontium/Arisaema_dracontium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arisaema dracontium, ou Arisème dragon, est une espèce végétale de la famille des Araceae.
 </t>
@@ -513,13 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Cette plante herbacée vivace a une hauteur variable, pouvant atteindre 110 cm de hauteur[1]. Ses parties souterraines comprennent un corme globuleux dont le diamètre peut atteindre 8 cm, garni de petits bourgeons formant des protubérances charnues et contenant un suc irritant[1]. La tige feuillée, unique, ne porte qu'une seule feuille découpée en 3 à 20 folioles à disposition pédalée. La longueur des folioles varie entre 8 et 25 cm[1].
-Appareil reproducteur
-La floraison a lieu en été, en général en juin-juillet.
-L'inflorescence est un spadice, comme chez toutes les Araceae. Le spathe est verdâtre et l'épi se termine par un appendice fin, orangeâtre, qui dépasse très largement le spathe.
-Les fruits sont des baies rouge vif, de 5 à 10 mm de diamètre, contenant chacune de 1 à 6 petites graines blanchâtres, crème, ou jaunâtres[1].
-La reproduction sexuée a un faible taux de réussite, il y a davantage de réussite par multiplication végétative à partir de la production d'un deuxième corme, qui donnera un individu identique à l'individu parental[1].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante herbacée vivace a une hauteur variable, pouvant atteindre 110 cm de hauteur. Ses parties souterraines comprennent un corme globuleux dont le diamètre peut atteindre 8 cm, garni de petits bourgeons formant des protubérances charnues et contenant un suc irritant. La tige feuillée, unique, ne porte qu'une seule feuille découpée en 3 à 20 folioles à disposition pédalée. La longueur des folioles varie entre 8 et 25 cm.
 </t>
         </is>
       </c>
@@ -545,10 +557,52 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu en été, en général en juin-juillet.
+L'inflorescence est un spadice, comme chez toutes les Araceae. Le spathe est verdâtre et l'épi se termine par un appendice fin, orangeâtre, qui dépasse très largement le spathe.
+Les fruits sont des baies rouge vif, de 5 à 10 mm de diamètre, contenant chacune de 1 à 6 petites graines blanchâtres, crème, ou jaunâtres.
+La reproduction sexuée a un faible taux de réussite, il y a davantage de réussite par multiplication végétative à partir de la production d'un deuxième corme, qui donnera un individu identique à l'individu parental.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Arisaema_dracontium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arisaema_dracontium</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est originaire de l'est de l'Amérique du Nord, aux États-Unis et au Canada. Sa limite sud va du Texas à la Floride, sa limite ouest du Texas à l'Ontario, et sa limite nord de l'Ontario au Québec.
 La répartition de cette espèce au Québec est localisée, le long du fleuve Saint-Laurent, du lac Saint-Louis, au sud de Montréal, jusqu’au lac Saint-Pierre, au nord-est de la même ville, et le long de la rivière Richelieu, au nord de Saint-Jean-sur-Richelieu.
@@ -557,33 +611,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Arisaema_dracontium</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Arisaema_dracontium</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Statut et protection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est classée au Canada dans la catégorie "Préoccupante"[2]. Aux États-Unis, son statut est "espèce menacée" dans le Massachusetts et le Vermont, "espèce en danger" dans le New Hampshire et "espèce vulnérable" dans l'état de New York[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est classée au Canada dans la catégorie "Préoccupante". Aux États-Unis, son statut est "espèce menacée" dans le Massachusetts et le Vermont, "espèce en danger" dans le New Hampshire et "espèce vulnérable" dans l'état de New York.
 </t>
         </is>
       </c>
